--- a/Datos/Hoja de datos.xlsx
+++ b/Datos/Hoja de datos.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF33500-A61B-4B3A-B2C3-69CD5DCF62CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC15A96-01D3-4914-9F21-05483AEB7EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="5" activeTab="7" xr2:uid="{3DC88BC5-F169-4C55-A8BF-8851F10A6EB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DC88BC5-F169-4C55-A8BF-8851F10A6EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredientes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="202">
   <si>
     <t>Código</t>
   </si>
@@ -638,11 +638,24 @@
   <si>
     <t>Galletas</t>
   </si>
+  <si>
+    <t>ING028</t>
+  </si>
+  <si>
+    <t>MAntequilla</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -1212,662 +1225,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FFF983-92F2-45C5-B29F-68779A9DFA10}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E26:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="12.08203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" customWidth="true" width="12.08203125"/>
+    <col min="6" max="6" customWidth="true" width="20.6640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.4140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>2</v>
       </c>
       <c r="F2" s="3">
         <v>45904</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>2</v>
       </c>
       <c r="F3" s="3">
         <v>45904</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>2</v>
       </c>
       <c r="F4" s="3">
         <v>45904</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>2</v>
       </c>
       <c r="F5" s="3">
         <v>45904</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>2</v>
       </c>
       <c r="F6" s="3">
         <v>45904</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>2</v>
       </c>
       <c r="F7" s="3">
         <v>45904</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>2</v>
       </c>
       <c r="F8" s="3">
         <v>45904</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>45904</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>45904</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>2</v>
       </c>
       <c r="F11" s="3">
         <v>45904</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>45904</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>45904</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>45904</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>2</v>
       </c>
       <c r="F15" s="3">
         <v>45904</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>45904</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>45904</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>2</v>
       </c>
       <c r="F18" s="3">
         <v>45904</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>45904</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>2</v>
       </c>
       <c r="F20" s="3">
         <v>45904</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>125</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>45904</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>45904</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>2</v>
       </c>
       <c r="F23" s="3">
         <v>45904</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>2</v>
       </c>
       <c r="F24" s="3">
         <v>45904</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>2</v>
       </c>
       <c r="F25" s="3">
         <v>45904</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>2</v>
       </c>
       <c r="F26" s="3">
         <v>45904</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>2</v>
       </c>
       <c r="F27" s="3">
         <v>45904</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>2</v>
       </c>
       <c r="F28" s="3">
         <v>45904</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>125</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>117.13</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1890,2275 +1926,2275 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.58203125"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125"/>
+    <col min="7" max="7" customWidth="true" width="30.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>2640</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>660</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>2640</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>200</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>300</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>200</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>700</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>176</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>3350</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>230</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>1200</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>112</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>75</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>190</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>645</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>37</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>3350</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>1200</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>864</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>640</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>50</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>4400</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>112</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>1600</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0">
         <v>112</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0">
         <v>300</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>500</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>0.25</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0">
         <v>140</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0">
         <v>4400</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0">
         <v>125</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0">
         <v>58</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0">
         <v>340.2</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0">
         <v>170.1</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>2041.17</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>150</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0">
         <v>300</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>680.39</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0">
         <v>0.25</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0">
         <v>120</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0">
         <v>680.39</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0">
         <v>75</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0">
         <v>12</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0">
         <v>6</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0">
         <v>990</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0">
         <v>248</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0">
         <v>75</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0">
         <v>125</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0">
         <v>990</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0">
         <v>50</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0">
         <v>1</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0">
         <v>190</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0">
         <v>64</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0">
         <v>12</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0">
         <v>6</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0">
         <v>990</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0">
         <v>248</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0">
         <v>75</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0">
         <v>125</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0">
         <v>990</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0">
         <v>1</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0">
         <v>190</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0">
         <v>75</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0">
         <v>4</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0">
         <v>4</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0">
         <v>4</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0">
         <v>4</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0">
         <v>48</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0">
         <v>12.5</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0">
         <v>0.5</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0">
         <v>82</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0">
         <v>25</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0">
         <v>330</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0">
         <v>38</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0">
         <v>50</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0">
         <v>75</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0">
         <v>16</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0">
         <v>12.5</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0">
         <v>18</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0">
         <v>4</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0">
         <v>25</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="0">
         <v>350</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="0">
         <v>75</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="0">
         <v>75</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="0">
         <v>100</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="0">
         <v>84</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="0">
         <v>13</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="0">
         <v>3000</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="0">
         <v>1000</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="A113" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="0">
         <v>500</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="0">
         <v>200</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="A115" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="0">
         <v>10</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="0">
         <v>1</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="0">
         <v>560</v>
       </c>
     </row>
@@ -4181,297 +4217,297 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.58203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="17.4140625" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.58203125"/>
+    <col min="4" max="4" customWidth="true" width="18.1640625"/>
+    <col min="5" max="5" customWidth="true" width="20.83203125"/>
+    <col min="6" max="6" customWidth="true" width="10.75"/>
+    <col min="7" max="7" customWidth="true" width="17.4140625"/>
+    <col min="8" max="8" customWidth="true" width="17.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>48</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>25</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>49</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>51</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>25.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>30.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>50</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>52</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>26</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>31.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>51</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>53</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>26.5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>31.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>52</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>54</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>27</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>32.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>53</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>55</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>27.5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>54</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>56</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>28</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>33.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>55</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>57</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>28.5</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>34.200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>56</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>58</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>29</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>34.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>57</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>59</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>29.5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>35.4</v>
       </c>
     </row>
@@ -4496,62 +4532,62 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>400</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>450</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>2500</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -4573,127 +4609,127 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.6640625" customWidth="1"/>
+    <col min="2" max="3" customWidth="true" width="11.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>6.91</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0.1447</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>6.95</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>0.1439</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>6.96</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>0.14369999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>6.94</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>0.14410000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>6.93</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>0.14430000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>6.92</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>0.14449999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>6.97</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>0.14349999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>6.9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>0.1449</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>6.98</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>0.14330000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>6.89</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>0.14510000000000001</v>
       </c>
     </row>
@@ -4715,25 +4751,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="11.6640625"/>
+    <col min="4" max="4" customWidth="true" width="14.1640625"/>
+    <col min="5" max="5" customWidth="true" width="12.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>52</v>
       </c>
     </row>
@@ -4741,16 +4777,16 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>5.78</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>5.84</v>
       </c>
     </row>
@@ -4758,16 +4794,16 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>5.9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>5.88</v>
       </c>
     </row>
@@ -4775,16 +4811,16 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>5.88</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>5.83</v>
       </c>
     </row>
@@ -34796,127 +34832,127 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1.2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>500</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>1.5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -34933,421 +34969,421 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFE0B65-E1E2-47C0-9B3B-46E71030E9B8}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="19.9140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.58203125"/>
+    <col min="2" max="2" customWidth="true" width="12.33203125"/>
+    <col min="3" max="3" customWidth="true" width="22.4140625"/>
+    <col min="4" max="4" customWidth="true" width="19.9140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>72</v>
       </c>
     </row>

--- a/Datos/Hoja de datos.xlsx
+++ b/Datos/Hoja de datos.xlsx
@@ -3,28 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC15A96-01D3-4914-9F21-05483AEB7EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A9DB37-3A6B-4E57-8357-007BCB1CC42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DC88BC5-F169-4C55-A8BF-8851F10A6EB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{3DC88BC5-F169-4C55-A8BF-8851F10A6EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredientes" sheetId="1" r:id="rId1"/>
     <sheet name="Recetas" sheetId="2" r:id="rId2"/>
-    <sheet name="Producción" sheetId="3" r:id="rId3"/>
+    <sheet name="Produccion" sheetId="3" r:id="rId3"/>
     <sheet name="Costos" sheetId="4" r:id="rId4"/>
     <sheet name="TasaCambio" sheetId="5" r:id="rId5"/>
     <sheet name="HistorialPrecios" sheetId="6" r:id="rId6"/>
-    <sheet name="Parámetros" sheetId="7" r:id="rId7"/>
+    <sheet name="Parametros" sheetId="7" r:id="rId7"/>
     <sheet name="TabladeConversión" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="242">
   <si>
     <t>Código</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Local</t>
-  </si>
-  <si>
-    <t>USD a Local</t>
   </si>
   <si>
     <t>Local a USD</t>
@@ -615,47 +612,172 @@
     <t>Pan Integral</t>
   </si>
   <si>
-    <t>REC011</t>
-  </si>
-  <si>
     <t>Pan Multigrano</t>
-  </si>
-  <si>
-    <t>REC012</t>
   </si>
   <si>
     <t>Exclusive White</t>
   </si>
   <si>
-    <t>REC013</t>
-  </si>
-  <si>
     <t>Pan Frances</t>
-  </si>
-  <si>
-    <t>REC014</t>
   </si>
   <si>
     <t>Galletas</t>
   </si>
   <si>
-    <t>ING028</t>
+    <t>24/03/2025</t>
   </si>
   <si>
-    <t>MAntequilla</t>
+    <t>17/03/2025</t>
   </si>
   <si>
-    <t>10/04/2025</t>
+    <t>24/02/2025</t>
   </si>
   <si>
-    <t/>
+    <t>17/02/2025</t>
+  </si>
+  <si>
+    <t>27/01/2025</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>13/01/2025</t>
+  </si>
+  <si>
+    <t>ING0001</t>
+  </si>
+  <si>
+    <t>ING0002</t>
+  </si>
+  <si>
+    <t>ING0003</t>
+  </si>
+  <si>
+    <t>ING0004</t>
+  </si>
+  <si>
+    <t>ING0005</t>
+  </si>
+  <si>
+    <t>ING0006</t>
+  </si>
+  <si>
+    <t>ING0007</t>
+  </si>
+  <si>
+    <t>ING0008</t>
+  </si>
+  <si>
+    <t>ING0009</t>
+  </si>
+  <si>
+    <t>ING0010</t>
+  </si>
+  <si>
+    <t>ING0011</t>
+  </si>
+  <si>
+    <t>ING0012</t>
+  </si>
+  <si>
+    <t>ING0013</t>
+  </si>
+  <si>
+    <t>ING0014</t>
+  </si>
+  <si>
+    <t>ING0015</t>
+  </si>
+  <si>
+    <t>ING0016</t>
+  </si>
+  <si>
+    <t>ING0017</t>
+  </si>
+  <si>
+    <t>ING0018</t>
+  </si>
+  <si>
+    <t>ING0019</t>
+  </si>
+  <si>
+    <t>ING0020</t>
+  </si>
+  <si>
+    <t>ING0021</t>
+  </si>
+  <si>
+    <t>ING0022</t>
+  </si>
+  <si>
+    <t>ING0023</t>
+  </si>
+  <si>
+    <t>ING0024</t>
+  </si>
+  <si>
+    <t>ING0025</t>
+  </si>
+  <si>
+    <t>ING0026</t>
+  </si>
+  <si>
+    <t>ING0027</t>
+  </si>
+  <si>
+    <t>REC0001</t>
+  </si>
+  <si>
+    <t>REC0002</t>
+  </si>
+  <si>
+    <t>REC0003</t>
+  </si>
+  <si>
+    <t>REC0004</t>
+  </si>
+  <si>
+    <t>REC0005</t>
+  </si>
+  <si>
+    <t>REC0006</t>
+  </si>
+  <si>
+    <t>REC0007</t>
+  </si>
+  <si>
+    <t>REC0008</t>
+  </si>
+  <si>
+    <t>REC0009</t>
+  </si>
+  <si>
+    <t>REC0010</t>
+  </si>
+  <si>
+    <t>REC0011</t>
+  </si>
+  <si>
+    <t>REC0012</t>
+  </si>
+  <si>
+    <t>REC0013</t>
+  </si>
+  <si>
+    <t>REC0014</t>
+  </si>
+  <si>
+    <t>Código Receta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -706,16 +828,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -782,6 +911,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -815,7 +951,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C92A4259-E776-4539-830A-613C9450E84A}" name="Recetas" displayName="Recetas" ref="A1:G10000" totalsRowShown="0">
   <autoFilter ref="A1:G10000" xr:uid="{C92A4259-E776-4539-830A-613C9450E84A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AB29C357-8FEF-421D-B4DF-4E276E3B254B}" name="Código receta"/>
+    <tableColumn id="1" xr3:uid="{AB29C357-8FEF-421D-B4DF-4E276E3B254B}" name="Código Receta"/>
     <tableColumn id="2" xr3:uid="{7AB80F20-7205-4520-8FE2-BFC7DB247ED2}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{725A2A7F-64DF-4D0E-A3C3-98A0065056BA}" name="Ingrediente"/>
     <tableColumn id="4" xr3:uid="{882F4435-3A5B-44A3-B2AD-DC4B333A97FD}" name="Cantidad"/>
@@ -858,12 +994,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BDCCFADF-F622-415D-A9BF-1B5005FE437E}" name="TasaCambio" displayName="TasaCambio" ref="A1:C10000" totalsRowShown="0">
-  <autoFilter ref="A1:C10000" xr:uid="{BDCCFADF-F622-415D-A9BF-1B5005FE437E}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{86128AA8-526B-40C8-96F9-3394B8DAF448}" name="Fecha"/>
-    <tableColumn id="2" xr3:uid="{2384A2D4-369D-4924-92C0-897E924EB673}" name="USD a Local"/>
-    <tableColumn id="3" xr3:uid="{BDAEDE5C-683E-4114-97F2-B90C715D693D}" name="Local a USD"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BDCCFADF-F622-415D-A9BF-1B5005FE437E}" name="TasaCambio" displayName="TasaCambio" ref="A1:B10000" totalsRowShown="0">
+  <autoFilter ref="A1:B10000" xr:uid="{BDCCFADF-F622-415D-A9BF-1B5005FE437E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{86128AA8-526B-40C8-96F9-3394B8DAF448}" name="Fecha" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{BDAEDE5C-683E-4114-97F2-B90C715D693D}" name="Local a USD" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1225,685 +1360,662 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FFF983-92F2-45C5-B29F-68779A9DFA10}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" customWidth="true" width="12.08203125"/>
-    <col min="6" max="6" customWidth="true" width="20.6640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.4140625"/>
+    <col min="4" max="5" width="12.08203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" s="3">
         <v>45904</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" s="3">
         <v>45904</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>125</v>
+      <c r="G3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D4" s="0">
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" s="3">
         <v>45904</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>125</v>
+      <c r="G4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D5" s="0">
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="3">
         <v>45904</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>125</v>
+      <c r="G5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
         <v>130</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D6" s="0">
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="3">
         <v>45904</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>125</v>
+      <c r="G6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
         <v>132</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>133</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D7" s="0">
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" s="3">
         <v>45904</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>125</v>
+      <c r="G7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
         <v>134</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>135</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D8" s="0">
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" s="3">
         <v>45904</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>125</v>
+      <c r="G8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
         <v>136</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D9" s="0">
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>45904</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>125</v>
+      <c r="G9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
         <v>138</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="C10" t="s">
         <v>139</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>45904</v>
       </c>
-      <c r="G10" t="s" s="0">
-        <v>141</v>
+      <c r="G10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
         <v>142</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="C11" t="s">
         <v>143</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" s="3">
         <v>45904</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>125</v>
+      <c r="G11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
         <v>145</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>45904</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>125</v>
+      <c r="G12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
         <v>147</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D13" s="0">
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>45904</v>
       </c>
-      <c r="G13" t="s" s="0">
-        <v>125</v>
+      <c r="G13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
         <v>149</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D14" s="0">
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>45904</v>
       </c>
-      <c r="G14" t="s" s="0">
-        <v>125</v>
+      <c r="G14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
         <v>151</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D15" s="0">
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" s="3">
         <v>45904</v>
       </c>
-      <c r="G15" t="s" s="0">
-        <v>125</v>
+      <c r="G15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
         <v>153</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D16" s="0">
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>45904</v>
       </c>
-      <c r="G16" t="s" s="0">
-        <v>125</v>
+      <c r="G16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
         <v>155</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="C17" t="s">
         <v>156</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>45904</v>
       </c>
-      <c r="G17" t="s" s="0">
-        <v>125</v>
+      <c r="G17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="D18" s="0">
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" s="3">
         <v>45904</v>
       </c>
-      <c r="G18" t="s" s="0">
-        <v>125</v>
+      <c r="G18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s">
         <v>160</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D19" s="0">
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>45904</v>
       </c>
-      <c r="G19" t="s" s="0">
-        <v>125</v>
+      <c r="G19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" t="s">
         <v>162</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="D20" s="0">
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" s="3">
         <v>45904</v>
       </c>
-      <c r="G20" t="s" s="0">
-        <v>125</v>
+      <c r="G20" t="s">
+        <v>124</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" t="s">
         <v>164</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D21" s="0">
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>45904</v>
       </c>
-      <c r="G21" t="s" s="0">
-        <v>125</v>
+      <c r="G21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="s">
         <v>166</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="C22" t="s">
         <v>167</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>45904</v>
       </c>
-      <c r="G22" t="s" s="0">
-        <v>125</v>
+      <c r="G22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
         <v>169</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="D23" s="0">
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" s="3">
         <v>45904</v>
       </c>
-      <c r="G23" t="s" s="0">
-        <v>125</v>
+      <c r="G23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" t="s">
         <v>171</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="D24" s="0">
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" s="3">
         <v>45904</v>
       </c>
-      <c r="G24" t="s" s="0">
-        <v>125</v>
+      <c r="G24" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
         <v>173</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="D25" s="0">
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" s="3">
         <v>45904</v>
       </c>
-      <c r="G25" t="s" s="0">
-        <v>125</v>
+      <c r="G25" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" t="s">
         <v>175</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D26" s="0">
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" s="3">
         <v>45904</v>
       </c>
-      <c r="G26" t="s" s="0">
-        <v>125</v>
+      <c r="G26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" t="s">
         <v>177</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>178</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D27" s="0">
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" s="3">
         <v>45904</v>
       </c>
-      <c r="G27" t="s" s="0">
-        <v>125</v>
+      <c r="G27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D28" s="0">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" s="3">
         <v>45904</v>
       </c>
-      <c r="G28" t="s" s="0">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>199</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="D29" t="n" s="0">
-        <v>117.13</v>
-      </c>
-      <c r="E29" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="G29" t="s" s="0">
-        <v>201</v>
+      <c r="G28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1921,2280 +2033,2280 @@
   <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.58203125"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625"/>
-    <col min="6" max="6" customWidth="true" width="31.33203125"/>
-    <col min="7" max="7" customWidth="true" width="30.75"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <v>2640</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4">
+        <v>660</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5">
+        <v>2640</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9">
+        <v>700</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10">
+        <v>176</v>
+      </c>
+      <c r="E10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12">
+        <v>3350</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13">
+        <v>230</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14">
+        <v>1200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19">
+        <v>645</v>
+      </c>
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21">
+        <v>3350</v>
+      </c>
+      <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22">
+        <v>1200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32">
+        <v>864</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41">
+        <v>640</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43">
+        <v>4400</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44">
+        <v>112</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45">
+        <v>1600</v>
+      </c>
+      <c r="E45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46">
+        <v>112</v>
+      </c>
+      <c r="E46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47">
+        <v>300</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48">
+        <v>500</v>
+      </c>
+      <c r="E48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49">
+        <v>0.25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51">
+        <v>140</v>
+      </c>
+      <c r="E51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52">
+        <v>4400</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53">
+        <v>125</v>
+      </c>
+      <c r="E53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55">
+        <v>340.2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56">
+        <v>170.1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57">
+        <v>2041.17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58">
+        <v>150</v>
+      </c>
+      <c r="E58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59">
+        <v>300</v>
+      </c>
+      <c r="E59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60">
+        <v>680.39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61">
+        <v>0.25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63">
+        <v>120</v>
+      </c>
+      <c r="E63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64">
+        <v>680.39</v>
+      </c>
+      <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65">
+        <v>75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68">
+        <v>990</v>
+      </c>
+      <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69">
+        <v>248</v>
+      </c>
+      <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71">
+        <v>125</v>
+      </c>
+      <c r="E71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72">
+        <v>990</v>
+      </c>
+      <c r="E72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75">
+        <v>190</v>
+      </c>
+      <c r="E75" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76">
+        <v>64</v>
+      </c>
+      <c r="E76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+      <c r="F77">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79">
+        <v>990</v>
+      </c>
+      <c r="E79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80">
+        <v>248</v>
+      </c>
+      <c r="E80" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81">
+        <v>75</v>
+      </c>
+      <c r="E81" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82">
+        <v>125</v>
+      </c>
+      <c r="E82" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>237</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83">
+        <v>990</v>
+      </c>
+      <c r="E83" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85">
+        <v>190</v>
+      </c>
+      <c r="E85" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86">
+        <v>75</v>
+      </c>
+      <c r="E86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>167</v>
+      </c>
+      <c r="F87">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>167</v>
+      </c>
+      <c r="F89">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>167</v>
+      </c>
+      <c r="F90">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>237</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91">
+        <v>48</v>
+      </c>
+      <c r="E91" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>238</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92">
+        <v>12.5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93">
+        <v>0.5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>156</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94">
+        <v>82</v>
+      </c>
+      <c r="E94" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>238</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96">
+        <v>330</v>
+      </c>
+      <c r="E96" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97">
+        <v>38</v>
+      </c>
+      <c r="E97" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98">
+        <v>50</v>
+      </c>
+      <c r="E98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>238</v>
+      </c>
+      <c r="B99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99">
+        <v>75</v>
+      </c>
+      <c r="E99" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>238</v>
+      </c>
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100">
+        <v>16</v>
+      </c>
+      <c r="E100" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>239</v>
+      </c>
+      <c r="B101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101">
+        <v>12.5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>123</v>
+      </c>
+      <c r="F101">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>239</v>
+      </c>
+      <c r="B102" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>167</v>
+      </c>
+      <c r="F102">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>239</v>
+      </c>
+      <c r="B103" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" t="s">
+        <v>127</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>167</v>
+      </c>
+      <c r="F103">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104">
+        <v>25</v>
+      </c>
+      <c r="E104" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105">
+        <v>350</v>
+      </c>
+      <c r="E105" t="s">
+        <v>126</v>
+      </c>
+      <c r="F105">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>239</v>
+      </c>
+      <c r="B106" t="s">
+        <v>191</v>
+      </c>
+      <c r="C106" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106">
+        <v>75</v>
+      </c>
+      <c r="E106" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" t="s">
+        <v>174</v>
+      </c>
+      <c r="D107">
+        <v>75</v>
+      </c>
+      <c r="E107" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>239</v>
+      </c>
+      <c r="B108" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108">
+        <v>100</v>
+      </c>
+      <c r="E108" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>239</v>
+      </c>
+      <c r="B109" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109">
+        <v>84</v>
+      </c>
+      <c r="E109" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110">
         <v>13</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="D2" s="0">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F2" s="0">
+      <c r="E110" t="s">
+        <v>123</v>
+      </c>
+      <c r="F110">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" t="s">
+        <v>172</v>
+      </c>
+      <c r="D111">
+        <v>3000</v>
+      </c>
+      <c r="E111" t="s">
+        <v>167</v>
+      </c>
+      <c r="F111">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>240</v>
+      </c>
+      <c r="B112" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" t="s">
+        <v>128</v>
+      </c>
+      <c r="D112">
+        <v>1000</v>
+      </c>
+      <c r="E112" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113">
+        <v>500</v>
+      </c>
+      <c r="E113" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2640</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="D114">
+        <v>200</v>
+      </c>
+      <c r="E114" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" t="s">
+        <v>192</v>
+      </c>
+      <c r="C115" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="D4" s="0">
-        <v>660</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F4" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D5" s="0">
-        <v>2640</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F5" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="D6" s="0">
-        <v>200</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F6" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="D7" s="0">
-        <v>300</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F7" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="D8" s="0">
-        <v>200</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F8" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D9" s="0">
-        <v>700</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F9" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D10" s="0">
-        <v>176</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F10" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="D11" s="0">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F11" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="D12" s="0">
-        <v>3350</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F12" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="D13" s="0">
-        <v>230</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F13" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D14" s="0">
-        <v>1200</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F14" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="D15" s="0">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F15" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="D16" s="0">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F16" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D17" s="0">
-        <v>190</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F17" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="D18" s="0">
+      <c r="D115">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>240</v>
+      </c>
+      <c r="B116" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116">
         <v>1</v>
       </c>
-      <c r="E18" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="F18" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D19" s="0">
-        <v>645</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F19" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="D20" s="0">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F20" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="D21" s="0">
-        <v>3350</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F21" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D22" s="0">
-        <v>1200</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F22" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="F23" s="0">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F24" s="0">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F25" s="0">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F26" s="0">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F27" s="0">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F28" s="0">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F29" s="0">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F30" s="0">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="E31" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F31" s="0">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D32" s="0">
-        <v>864</v>
-      </c>
-      <c r="E32" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F32" s="0">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E33" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F33" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F34" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="E35" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F35" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F36" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="E37" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F37" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F38" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="E39" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F39" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F40" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D41" s="0">
-        <v>640</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F41" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="D42" s="0">
-        <v>50</v>
-      </c>
-      <c r="E42" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F42" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="D43" s="0">
-        <v>4400</v>
-      </c>
-      <c r="E43" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F43" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="D44" s="0">
-        <v>112</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F44" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D45" s="0">
-        <v>1600</v>
-      </c>
-      <c r="E45" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F45" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="D46" s="0">
-        <v>112</v>
-      </c>
-      <c r="E46" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F46" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="D47" s="0">
-        <v>300</v>
-      </c>
-      <c r="E47" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F47" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D48" s="0">
-        <v>500</v>
-      </c>
-      <c r="E48" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F48" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="D49" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="E49" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="F49" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="E50" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="F50" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D51" s="0">
-        <v>140</v>
-      </c>
-      <c r="E51" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F51" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B52" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="D52" s="0">
-        <v>4400</v>
-      </c>
-      <c r="E52" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F52" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="D53" s="0">
-        <v>125</v>
-      </c>
-      <c r="E53" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F53" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="D54" s="0">
-        <v>58</v>
-      </c>
-      <c r="E54" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F54" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="D55" s="0">
-        <v>340.2</v>
-      </c>
-      <c r="E55" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F55" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="D56" s="0">
-        <v>170.1</v>
-      </c>
-      <c r="E56" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F56" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D57" s="0">
-        <v>2041.17</v>
-      </c>
-      <c r="E57" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F57" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C58" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="D58" s="0">
-        <v>150</v>
-      </c>
-      <c r="E58" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F58" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="D59" s="0">
-        <v>300</v>
-      </c>
-      <c r="E59" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F59" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>153</v>
-      </c>
-      <c r="D60" s="0">
-        <v>680.39</v>
-      </c>
-      <c r="E60" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F60" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C61" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="D61" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="E61" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="F61" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C62" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="E62" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="F62" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B63" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D63" s="0">
-        <v>120</v>
-      </c>
-      <c r="E63" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F63" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="C64" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="D64" s="0">
-        <v>680.39</v>
-      </c>
-      <c r="E64" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F64" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="C65" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="D65" s="0">
-        <v>75</v>
-      </c>
-      <c r="E65" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F65" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B66" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C66" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="D66" s="0">
-        <v>12</v>
-      </c>
-      <c r="E66" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F66" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B67" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C67" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="D67" s="0">
-        <v>6</v>
-      </c>
-      <c r="E67" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F67" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C68" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="D68" s="0">
-        <v>990</v>
-      </c>
-      <c r="E68" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F68" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="D69" s="0">
-        <v>248</v>
-      </c>
-      <c r="E69" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F69" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="D70" s="0">
-        <v>75</v>
-      </c>
-      <c r="E70" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F70" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C71" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="D71" s="0">
-        <v>125</v>
-      </c>
-      <c r="E71" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F71" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D72" s="0">
-        <v>990</v>
-      </c>
-      <c r="E72" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F72" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B73" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C73" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="D73" s="0">
-        <v>50</v>
-      </c>
-      <c r="E73" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F73" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B74" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C74" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="D74" s="0">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="F74" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B75" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C75" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D75" s="0">
-        <v>190</v>
-      </c>
-      <c r="E75" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F75" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B76" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C76" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D76" s="0">
-        <v>64</v>
-      </c>
-      <c r="E76" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F76" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B77" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C77" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="D77" s="0">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F77" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B78" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C78" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="D78" s="0">
-        <v>6</v>
-      </c>
-      <c r="E78" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F78" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B79" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C79" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="D79" s="0">
-        <v>990</v>
-      </c>
-      <c r="E79" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F79" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B80" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C80" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="D80" s="0">
-        <v>248</v>
-      </c>
-      <c r="E80" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F80" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B81" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C81" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="D81" s="0">
-        <v>75</v>
-      </c>
-      <c r="E81" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F81" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B82" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C82" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="D82" s="0">
-        <v>125</v>
-      </c>
-      <c r="E82" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F82" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B83" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C83" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D83" s="0">
-        <v>990</v>
-      </c>
-      <c r="E83" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F83" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B84" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C84" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="D84" s="0">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="F84" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B85" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C85" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D85" s="0">
-        <v>190</v>
-      </c>
-      <c r="E85" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F85" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B86" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C86" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="D86" s="0">
-        <v>75</v>
-      </c>
-      <c r="E86" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F86" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B87" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C87" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="D87" s="0">
-        <v>4</v>
-      </c>
-      <c r="E87" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="F87" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B88" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C88" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="D88" s="0">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="F88" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B89" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C89" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="D89" s="0">
-        <v>4</v>
-      </c>
-      <c r="E89" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="F89" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B90" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C90" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="D90" s="0">
-        <v>4</v>
-      </c>
-      <c r="E90" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="F90" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="B91" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C91" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D91" s="0">
-        <v>48</v>
-      </c>
-      <c r="E91" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F91" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="B92" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="C92" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="D92" s="0">
-        <v>12.5</v>
-      </c>
-      <c r="E92" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F92" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="B93" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="C93" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="D93" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="E93" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F93" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="B94" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="C94" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="D94" s="0">
-        <v>82</v>
-      </c>
-      <c r="E94" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F94" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="B95" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="C95" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="D95" s="0">
-        <v>25</v>
-      </c>
-      <c r="E95" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F95" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="B96" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="C96" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D96" s="0">
-        <v>330</v>
-      </c>
-      <c r="E96" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F96" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="B97" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="C97" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="D97" s="0">
-        <v>38</v>
-      </c>
-      <c r="E97" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F97" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="B98" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="C98" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D98" s="0">
-        <v>50</v>
-      </c>
-      <c r="E98" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F98" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="B99" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="C99" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D99" s="0">
-        <v>75</v>
-      </c>
-      <c r="E99" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F99" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="B100" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="C100" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D100" s="0">
-        <v>16</v>
-      </c>
-      <c r="E100" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F100" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="B101" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C101" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="D101" s="0">
-        <v>12.5</v>
-      </c>
-      <c r="E101" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F101" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="B102" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C102" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="D102" s="0">
-        <v>18</v>
-      </c>
-      <c r="E102" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="F102" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="B103" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C103" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="D103" s="0">
-        <v>4</v>
-      </c>
-      <c r="E103" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="F103" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="B104" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C104" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="D104" s="0">
-        <v>25</v>
-      </c>
-      <c r="E104" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F104" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="B105" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C105" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D105" s="0">
-        <v>350</v>
-      </c>
-      <c r="E105" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F105" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="B106" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C106" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="D106" s="0">
-        <v>75</v>
-      </c>
-      <c r="E106" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F106" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="B107" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C107" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D107" s="0">
-        <v>75</v>
-      </c>
-      <c r="E107" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F107" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="B108" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C108" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D108" s="0">
-        <v>100</v>
-      </c>
-      <c r="E108" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F108" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="B109" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C109" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D109" s="0">
-        <v>84</v>
-      </c>
-      <c r="E109" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F109" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="B110" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="C110" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="D110" s="0">
-        <v>13</v>
-      </c>
-      <c r="E110" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F110" s="0">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="B111" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="C111" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="D111" s="0">
-        <v>3000</v>
-      </c>
-      <c r="E111" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="F111" s="0">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="B112" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="C112" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D112" s="0">
-        <v>1000</v>
-      </c>
-      <c r="E112" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F112" s="0">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="B113" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="C113" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="D113" s="0">
-        <v>500</v>
-      </c>
-      <c r="E113" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F113" s="0">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="B114" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="C114" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D114" s="0">
-        <v>200</v>
-      </c>
-      <c r="E114" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F114" s="0">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="B115" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="C115" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="D115" s="0">
-        <v>10</v>
-      </c>
-      <c r="E115" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F115" s="0">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="B116" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="C116" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="D116" s="0">
-        <v>1</v>
-      </c>
-      <c r="E116" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="F116" s="0">
+      <c r="E116" t="s">
+        <v>167</v>
+      </c>
+      <c r="F116">
         <v>560</v>
       </c>
     </row>
@@ -4212,302 +4324,302 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.58203125"/>
-    <col min="4" max="4" customWidth="true" width="18.1640625"/>
-    <col min="5" max="5" customWidth="true" width="20.83203125"/>
-    <col min="6" max="6" customWidth="true" width="10.75"/>
-    <col min="7" max="7" customWidth="true" width="17.4140625"/>
-    <col min="8" max="8" customWidth="true" width="17.75"/>
+    <col min="2" max="2" width="13.58203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="17.4140625" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>48</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>25</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>49</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>51</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>25.5</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>30.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>50</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>52</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>26</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>31.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>51</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>53</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>26.5</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>31.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>52</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>54</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>27</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>32.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>53</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>55</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>27.5</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>54</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>56</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>28</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>33.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>55</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>57</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>28.5</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>34.200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>56</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>58</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>29</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>34.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>57</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>59</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>29.5</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>35.4</v>
       </c>
     </row>
@@ -4532,62 +4644,62 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="13.0"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>400</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>450</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>2500</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4601,142 +4713,135 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF8C85D-8820-4828-BE78-5163C737574F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" customWidth="true" width="11.6640625"/>
+    <col min="1" max="1" width="10.6640625" style="4"/>
+    <col min="2" max="2" width="11.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0">
-        <v>6.91</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0.1447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0">
-        <v>6.95</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.1439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0">
-        <v>6.96</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.14369999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0">
-        <v>6.94</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.14410000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0">
-        <v>6.93</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.14430000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0">
-        <v>6.92</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.14449999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0">
-        <v>6.97</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.14349999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0">
-        <v>6.9</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.1449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0">
-        <v>6.98</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0.14330000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0">
-        <v>6.89</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0.14510000000000001</v>
+      <c r="B2" s="6">
+        <v>0.50319999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>45933</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>45719</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>45932</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>45718</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>45809</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4751,42 +4856,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.6640625"/>
-    <col min="4" max="4" customWidth="true" width="14.1640625"/>
-    <col min="5" max="5" customWidth="true" width="12.75"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>5.78</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>5.84</v>
       </c>
     </row>
@@ -4794,16 +4899,16 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>5.9</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>5.88</v>
       </c>
     </row>
@@ -4811,16 +4916,16 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>5.88</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>5.83</v>
       </c>
     </row>
@@ -34826,133 +34931,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EA249F-4629-4FD6-B329-55B4CCF2A4D8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s" s="0">
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="0">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="0">
-        <v>1.2</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="B5" s="0">
-        <v>500</v>
-      </c>
-      <c r="C5" t="s" s="0">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="B6" s="0">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="B7" s="0">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B8" s="0">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="0">
-        <v>1.5</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="0">
-        <v>200</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -34975,416 +35080,416 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.58203125"/>
-    <col min="2" max="2" customWidth="true" width="12.33203125"/>
-    <col min="3" max="3" customWidth="true" width="22.4140625"/>
-    <col min="4" max="4" customWidth="true" width="19.9140625"/>
+    <col min="1" max="1" width="14.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.4140625" customWidth="1"/>
+    <col min="4" max="4" width="19.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s" s="0">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s" s="0">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C27" t="s" s="0">
+      <c r="C28" t="s">
         <v>117</v>
       </c>
-      <c r="D27" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s" s="0">
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B29" t="s" s="0">
+      <c r="C29" t="s">
         <v>119</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>72</v>
+      <c r="D29" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/Hoja de datos.xlsx
+++ b/Datos/Hoja de datos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\Datos\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="247">
   <si>
     <t>Código</t>
   </si>
@@ -770,6 +770,21 @@
   <si>
     <t>Código Receta</t>
   </si>
+  <si>
+    <t>ING0028</t>
+  </si>
+  <si>
+    <t>frijol</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>13/04/2025</t>
+  </si>
+  <si>
+    <t>frijoles</t>
+  </si>
 </sst>
 </file>
 
@@ -1360,7 +1375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FFF983-92F2-45C5-B29F-68779A9DFA10}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1368,654 +1383,677 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="12.08203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" customWidth="true" width="12.08203125"/>
+    <col min="6" max="6" customWidth="true" width="20.6640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.4140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>2</v>
       </c>
       <c r="F2" s="3">
         <v>45904</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>2</v>
       </c>
       <c r="F3" s="3">
         <v>45904</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>2</v>
       </c>
       <c r="F4" s="3">
         <v>45904</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>2</v>
       </c>
       <c r="F5" s="3">
         <v>45904</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>2</v>
       </c>
       <c r="F6" s="3">
         <v>45904</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>2</v>
       </c>
       <c r="F7" s="3">
         <v>45904</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>2</v>
       </c>
       <c r="F8" s="3">
         <v>45904</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>45904</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>45904</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>2</v>
       </c>
       <c r="F11" s="3">
         <v>45904</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>45904</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>45904</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>45904</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>213</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>2</v>
       </c>
       <c r="F15" s="3">
         <v>45904</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>45904</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>45904</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>2</v>
       </c>
       <c r="F18" s="3">
         <v>45904</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>45904</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>2</v>
       </c>
       <c r="F20" s="3">
         <v>45904</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>124</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>45904</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>45904</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>221</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>2</v>
       </c>
       <c r="F23" s="3">
         <v>45904</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>2</v>
       </c>
       <c r="F24" s="3">
         <v>45904</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>2</v>
       </c>
       <c r="F25" s="3">
         <v>45904</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>2</v>
       </c>
       <c r="F26" s="3">
         <v>45904</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>2</v>
       </c>
       <c r="F27" s="3">
         <v>45904</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>2</v>
       </c>
       <c r="F28" s="3">
         <v>45904</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>124</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2038,2275 +2076,2275 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.58203125"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125"/>
+    <col min="7" max="7" customWidth="true" width="30.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>2640</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>660</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>2640</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>200</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>300</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>200</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>700</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>176</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>3350</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>230</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>1200</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>112</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>75</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>190</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>645</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>37</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>3350</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>1200</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>864</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>864</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>640</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>50</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>4400</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>112</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>1600</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0">
         <v>112</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0">
         <v>300</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>500</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>0.25</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0">
         <v>140</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0">
         <v>4400</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0">
         <v>125</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0">
         <v>58</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0">
         <v>340.2</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0">
         <v>170.1</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>2041.17</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>150</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0">
         <v>300</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>680.39</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0">
         <v>0.25</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0">
         <v>120</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0">
         <v>680.39</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0">
         <v>75</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0">
         <v>12</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0">
         <v>6</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0">
         <v>990</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0">
         <v>248</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0">
         <v>75</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0">
         <v>125</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0">
         <v>990</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0">
         <v>50</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0">
         <v>1</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0">
         <v>190</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0">
         <v>64</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0">
         <v>12</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0">
         <v>6</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0">
         <v>990</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0">
         <v>248</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0">
         <v>75</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0">
         <v>125</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0">
         <v>990</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0">
         <v>1</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0">
         <v>190</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0">
         <v>75</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0">
         <v>4</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0">
         <v>4</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0">
         <v>4</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0">
         <v>4</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0">
         <v>48</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0">
         <v>12.5</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0">
         <v>0.5</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0">
         <v>82</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0">
         <v>25</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0">
         <v>330</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0">
         <v>38</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0">
         <v>50</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0">
         <v>75</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0">
         <v>16</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0">
         <v>12.5</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0">
         <v>18</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0">
         <v>4</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0">
         <v>25</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="0">
         <v>350</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="0">
         <v>75</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="0">
         <v>75</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="0">
         <v>100</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="0">
         <v>84</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="0">
         <v>13</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="0">
         <v>3000</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="0">
         <v>1000</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="A113" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="0">
         <v>500</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="0">
         <v>200</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="A115" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="0">
         <v>10</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="0">
         <v>560</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="0">
         <v>1</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="0">
         <v>560</v>
       </c>
     </row>
@@ -4329,297 +4367,297 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.58203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="17.4140625" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.58203125"/>
+    <col min="4" max="4" customWidth="true" width="18.1640625"/>
+    <col min="5" max="5" customWidth="true" width="20.83203125"/>
+    <col min="6" max="6" customWidth="true" width="10.75"/>
+    <col min="7" max="7" customWidth="true" width="17.4140625"/>
+    <col min="8" max="8" customWidth="true" width="17.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>48</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>25</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>49</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>51</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>25.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>30.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>50</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>52</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>26</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>31.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>51</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>53</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>26.5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>31.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>52</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>54</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>27</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>32.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>53</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>55</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>27.5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>54</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>56</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>28</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>33.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>55</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>57</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>28.5</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>34.200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>56</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>58</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>29</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>34.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>57</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>59</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>29.5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>35.4</v>
       </c>
     </row>
@@ -4644,62 +4682,62 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>400</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>450</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>2500</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -4721,8 +4759,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4"/>
-    <col min="2" max="2" width="11.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" style="4" width="10.6640625"/>
+    <col min="2" max="2" customWidth="true" style="6" width="11.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -4856,25 +4894,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="11.6640625"/>
+    <col min="4" max="4" customWidth="true" width="14.1640625"/>
+    <col min="5" max="5" customWidth="true" width="12.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>51</v>
       </c>
     </row>
@@ -4882,16 +4920,16 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>5.78</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>5.84</v>
       </c>
     </row>
@@ -4899,16 +4937,16 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>5.9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>5.88</v>
       </c>
     </row>
@@ -4916,16 +4954,16 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>5.88</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>5.83</v>
       </c>
     </row>
@@ -34937,127 +34975,127 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1.2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>500</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>1.5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -35080,415 +35118,415 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="19.9140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.58203125"/>
+    <col min="2" max="2" customWidth="true" width="12.33203125"/>
+    <col min="3" max="3" customWidth="true" width="22.4140625"/>
+    <col min="4" max="4" customWidth="true" width="19.9140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>71</v>
       </c>
     </row>
